--- a/project_management/CIL.xlsx
+++ b/project_management/CIL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>CI ID</t>
   </si>
@@ -43,6 +43,9 @@
     <t>PMP</t>
   </si>
   <si>
+    <t>PMP_v1</t>
+  </si>
+  <si>
     <t>bassant.samir255@gmail.com</t>
   </si>
   <si>
@@ -55,28 +58,31 @@
     <t>SRS</t>
   </si>
   <si>
+    <t>SRS_v1</t>
+  </si>
+  <si>
     <t>amirabahaa195@gmail.com</t>
   </si>
   <si>
     <t>CI-01-03</t>
   </si>
   <si>
-    <t>CMP</t>
+    <t>SIQ</t>
+  </si>
+  <si>
+    <t>SIQ_v1</t>
+  </si>
+  <si>
+    <t>CI-01-04</t>
+  </si>
+  <si>
+    <t>CIL</t>
+  </si>
+  <si>
+    <t>CIL_v1</t>
   </si>
   <si>
     <t>Zahraa Mahmoud</t>
-  </si>
-  <si>
-    <t>CI-01-04</t>
-  </si>
-  <si>
-    <t>SIQ</t>
-  </si>
-  <si>
-    <t>CI-01-05</t>
-  </si>
-  <si>
-    <t>CIL</t>
   </si>
   <si>
     <t>CI-02-01</t>
@@ -119,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -130,6 +136,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -162,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -175,14 +185,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -443,138 +456,143 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" outlineLevel="1">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" outlineLevel="1">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" outlineLevel="1">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" outlineLevel="1">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" outlineLevel="1">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" outlineLevel="1">
       <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" outlineLevel="1">
       <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" outlineLevel="1">
       <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" outlineLevel="1">
       <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" outlineLevel="1">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="6"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H11">
       <formula1>".,Document,Software"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G2"/>
-    <hyperlink r:id="rId2" ref="G3"/>
-    <hyperlink r:id="rId3" ref="G4"/>
-    <hyperlink r:id="rId4" ref="G6"/>
+    <hyperlink r:id="rId1" ref="F2"/>
+    <hyperlink r:id="rId2" ref="G2"/>
+    <hyperlink r:id="rId3" ref="F3"/>
+    <hyperlink r:id="rId4" ref="G3"/>
+    <hyperlink r:id="rId5" ref="F5"/>
+    <hyperlink r:id="rId6" ref="G5"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/project_management/CIL.xlsx
+++ b/project_management/CIL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>CI ID</t>
   </si>
@@ -172,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -186,9 +186,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
@@ -499,7 +496,9 @@
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -532,7 +531,7 @@
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" outlineLevel="1">
       <c r="A7" s="2" t="s">
@@ -541,43 +540,43 @@
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" outlineLevel="1">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" outlineLevel="1">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" outlineLevel="1">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" outlineLevel="1">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="5"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -590,9 +589,10 @@
     <hyperlink r:id="rId2" ref="G2"/>
     <hyperlink r:id="rId3" ref="F3"/>
     <hyperlink r:id="rId4" ref="G3"/>
-    <hyperlink r:id="rId5" ref="F5"/>
-    <hyperlink r:id="rId6" ref="G5"/>
+    <hyperlink r:id="rId5" ref="F4"/>
+    <hyperlink r:id="rId6" ref="F5"/>
+    <hyperlink r:id="rId7" ref="G5"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>